--- a/biology/Virologie/Picornaviridae/Picornaviridae.xlsx
+++ b/biology/Virologie/Picornaviridae/Picornaviridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Picornaviridae (Picornaviridés) sont une famille de virus à ARN de polarité positive, du groupe IV. Ce sont des virus de petite taille (20 à 30 nm). Cette famille de virus comprend, entre autres :
 les Entérovirus :
@@ -492,7 +504,7 @@
 les Hépatovirus (VHA)
 Les Picornavirus sont à l'origine du rhume banal et de certaines gastro-entérites, mais ils peuvent provoquer des maladies beaucoup plus graves comme la poliomyélite et des encéphalites dont des méningites.
 Chaque année, plus d'un milliard de personnes sont infectées par un picornavirus. 
-Une étude récente[2] a démontrée que divers picornavirus : l'encephalomyocarditis virus (en) (EMCV), le virus coxsackie B3 (CVB3), le poliovirus et l'entérovirus D68 utilisent une voie d'activation du cytosquelette d'actine incluant les protéines WASL (en), NCK1 (en) et TNK2 (en) pour infecter les cellules-hôtes. 
+Une étude récente a démontrée que divers picornavirus : l'encephalomyocarditis virus (en) (EMCV), le virus coxsackie B3 (CVB3), le poliovirus et l'entérovirus D68 utilisent une voie d'activation du cytosquelette d'actine incluant les protéines WASL (en), NCK1 (en) et TNK2 (en) pour infecter les cellules-hôtes. 
 </t>
         </is>
       </c>
